--- a/F1_teams_namuwiki.xlsx
+++ b/F1_teams_namuwiki.xlsx
@@ -20,66 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">redbull</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%98%A4%EB%9D%BC%ED%81%B4%20%EB%A0%88%EB%93%9C%EB%B6%88%20%EB%A0%88%EC%9D%B4%EC%8B%B1</t>
+    <t xml:space="preserve">https://w.wiki/CGiX</t>
   </si>
   <si>
     <t xml:space="preserve">benz</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A9%94%EB%A5%B4%EC%84%B8%EB%8D%B0%EC%8A%A4-AMG%20%ED%8E%98%ED%8A%B8%EB%A1%9C%EB%82%98%EC%8A%A4%20%ED%8F%AC%EB%AE%AC%EB%9F%AC%20%EC%9B%90%20%ED%8C%80</t>
+    <t xml:space="preserve">https://w.wiki/CGiZ</t>
   </si>
   <si>
     <t xml:space="preserve">ferrari</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%8A%A4%EC%BF%A0%EB%8D%B0%EB%A6%AC%EC%95%84%20%ED%8E%98%EB%9D%BC%EB%A6%AC%20HP</t>
+    <t xml:space="preserve">https://w.wiki/CGic</t>
   </si>
   <si>
     <t xml:space="preserve">mcraren</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A7%A5%EB%9D%BC%EB%A0%8C%20%ED%8F%AC%EB%AE%AC%EB%9F%AC%201%20%ED%8C%80</t>
+    <t xml:space="preserve">https://w.wiki/CGiU</t>
   </si>
   <si>
     <t xml:space="preserve">aston</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%95%A0%EC%8A%A4%ED%84%B4%20%EB%A7%88%ED%8B%B4%20%EC%95%84%EB%9E%8C%EC%BD%94%20%ED%8F%AC%EB%AE%AC%EB%9F%AC%20%EC%9B%90%20%ED%8C%80</t>
+    <t xml:space="preserve">https://w.wiki/CGig</t>
   </si>
   <si>
     <t xml:space="preserve">alphine</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/BWT%20%EC%95%8C%ED%95%80%20F1%20%ED%8C%80</t>
-  </si>
-  <si>
     <t xml:space="preserve">williams</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%9C%8C%EB%A6%AC%EC%97%84%EC%8A%A4%20%EB%A0%88%EC%9D%B4%EC%8B%B1</t>
+    <t xml:space="preserve">https://w.wiki/CGin</t>
   </si>
   <si>
     <t xml:space="preserve">rb</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%B9%84%EC%9E%90%20%EC%BA%90%EC%8B%9C%20%EC%95%B1%20RB%20%ED%8F%AC%EB%AE%AC%EB%9F%AC%20%EC%9B%90%20%ED%8C%80</t>
+    <t xml:space="preserve">https://w.wiki/CGiq</t>
   </si>
   <si>
     <t xml:space="preserve">kick</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%8A%A4%ED%85%8C%EC%9D%B4%ED%81%AC%20F1%20%ED%8C%80%20%ED%82%A5%20%EC%9E%90%EC%9A%B0%EB%B2%84</t>
+    <t xml:space="preserve">https://w.wiki/CGis</t>
   </si>
   <si>
     <t xml:space="preserve">hass</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A8%B8%EB%8B%88%EA%B7%B8%EB%9E%A8%20%ED%95%98%EC%8A%A4%20F1%20%ED%8C%80</t>
+    <t xml:space="preserve">https://w.wiki/CGiv</t>
   </si>
 </sst>
 </file>
@@ -94,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,8 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,90 +179,90 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
